--- a/Données contrôle.xlsx
+++ b/Données contrôle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ok\ZIME\DDESTFP A\SPAF\ACTIVITES PTA\2024\Normes ets privés\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ok\Dashboard_normes_ets_prives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D093C625-9FC5-4087-A513-086C0B1352F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2159BCDD-863A-4F74-915A-86A892127C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BR6" sqref="BR6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,7 @@
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" customWidth="1"/>
+    <col min="15" max="15" width="55.85546875" customWidth="1"/>
     <col min="16" max="16" width="26.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
